--- a/1设计文档开发资料/2020 开发产品BOM 成本清单/RT8系列温控器关系表20200827.xlsx
+++ b/1设计文档开发资料/2020 开发产品BOM 成本清单/RT8系列温控器关系表20200827.xlsx
@@ -64,6 +64,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="阿里巴巴普惠体 L"/>
+        <charset val="134"/>
+      </rPr>
       <t>3A</t>
     </r>
     <r>
@@ -117,6 +123,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="阿里巴巴普惠体 L"/>
+        <charset val="134"/>
+      </rPr>
       <t>3A</t>
     </r>
     <r>
@@ -170,6 +182,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="阿里巴巴普惠体 L"/>
+        <charset val="134"/>
+      </rPr>
       <t>16A</t>
     </r>
     <r>
@@ -241,6 +259,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="阿里巴巴普惠体 L"/>
+        <charset val="134"/>
+      </rPr>
       <t>16A</t>
     </r>
     <r>
@@ -300,6 +324,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>场景触控空调温控器</t>
     </r>
     <r>
@@ -326,6 +356,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>场景触控空调温控器</t>
     </r>
     <r>
@@ -376,6 +412,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>场景触控全联供控制器</t>
     </r>
     <r>
@@ -402,6 +444,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>场景触控全联供控制器</t>
     </r>
     <r>
@@ -447,10 +495,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
@@ -495,15 +543,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,6 +559,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -525,16 +576,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -546,6 +598,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -555,7 +650,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,6 +664,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -577,65 +680,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -660,6 +708,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -672,7 +858,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,163 +888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,11 +917,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,36 +989,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -933,21 +996,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,10 +1022,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,137 +1034,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1142,9 +1190,6 @@
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1512,13 +1557,13 @@
   <sheetPr/>
   <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:K5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="2" max="2" width="34.4583333333333" customWidth="1"/>
     <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="27.125" customWidth="1"/>
@@ -1576,11 +1621,11 @@
       <c r="J6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="25.5" spans="2:11">
+    <row r="7" s="1" customFormat="1" ht="22.5" spans="2:11">
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1602,17 +1647,17 @@
       <c r="H7" s="6">
         <v>10515.0486</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="25.5" spans="2:11">
+    <row r="8" s="1" customFormat="1" ht="22.5" spans="2:11">
       <c r="B8" s="4"/>
       <c r="C8" s="5">
         <v>8010102.0182</v>
@@ -1630,13 +1675,13 @@
         <v>201.0563</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="12" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="25.5" spans="2:11">
+    <row r="9" s="1" customFormat="1" ht="22.5" spans="2:11">
       <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8010101.0111</v>
@@ -1656,13 +1701,13 @@
       <c r="H9" s="6">
         <v>10515.0487</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="12" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="25.5" spans="2:11">
+    <row r="10" s="1" customFormat="1" ht="22.5" spans="2:11">
       <c r="B10" s="4"/>
       <c r="C10" s="7">
         <v>8010101.0112</v>
@@ -1680,13 +1725,13 @@
         <v>201.0712</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="12" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="25.5" spans="2:11">
+    <row r="11" s="1" customFormat="1" ht="22.5" spans="2:11">
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1708,13 +1753,13 @@
       <c r="H11" s="6">
         <v>10515.0488</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="13" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="25.5" spans="2:11">
+    <row r="12" s="1" customFormat="1" ht="22.5" spans="2:11">
       <c r="B12" s="4"/>
       <c r="C12" s="7">
         <v>80201.015</v>
@@ -1732,13 +1777,13 @@
         <v>201.0715</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="14" t="s">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="25.5" spans="2:11">
+    <row r="13" s="1" customFormat="1" ht="22.5" spans="2:11">
       <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
@@ -1760,13 +1805,13 @@
       <c r="H13" s="6">
         <v>10515.0489</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="14" t="s">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="25.5" spans="2:11">
+    <row r="14" s="1" customFormat="1" ht="22.5" spans="2:11">
       <c r="B14" s="4"/>
       <c r="C14" s="7">
         <v>8010102.0184</v>
@@ -1784,9 +1829,9 @@
         <v>201.0721</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="14" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="13" t="s">
         <v>33</v>
       </c>
     </row>
